--- a/DOWNLOADS/EDITAIS/U_455978_E_900392025_07-10-2025_09h00m/U_455978_E_900392025_07-10-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_455978_E_900392025_07-10-2025_09h00m/U_455978_E_900392025_07-10-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="351">
   <si>
     <t>Nº</t>
   </si>
@@ -709,343 +709,349 @@
     <t>Xícara Xícara Material: Porcelana, Tipo: Chá, Cor: Branca, Capacidade: 200ML, Características Adicionais: Com Pires</t>
   </si>
   <si>
-    <t>Abridor de lata reforçado, em inox, com espessura mínima de 1,0 mm.(aproximadamente)</t>
-  </si>
-  <si>
-    <t>Açucareiro com colher em plástico resistente na cor preto, capacidade 300 ML (aproximadamente)</t>
-  </si>
-  <si>
-    <t>Assadeira redonda, alumínio resistente, méd. 6cmx25cm (aproximadamente). O produto não pode desprender resíduos de alumínios.</t>
-  </si>
-  <si>
-    <t>Assadeira retangular média, alumínio resistente, méd. 40x30x4cm (aproximadamente)O produto não pode desprender resíduos de alumínios.</t>
-  </si>
-  <si>
-    <t>Avental em pvc branco 1,20 x 0,70m (aproximadamente) para cozinha.</t>
-  </si>
-  <si>
-    <t>Bacia canelada em plástico resistente. Capacidade para 35 litros. (aproximadamente)</t>
-  </si>
-  <si>
-    <t>Bacia plástica, branca ou incolor transparente, com capacidade aproximada mínima de 13,5 litros</t>
-  </si>
-  <si>
-    <t>Bacia plástica, branca ou incolor transparente, com capacidade aproximada mínima de 4 litros</t>
-  </si>
-  <si>
-    <t>Balança doméstica: tipo: digital; capacidade: 150 kg; possui display digital; a plataforma é de vidro temperado; dimensões: 30cm de largura, 3cm de altura, 30cm de comprimento(aproximadamente). (balança para uso das escolas e cmeis na pesagem dos alunos)</t>
-  </si>
-  <si>
-    <t>Balança eletrônica, capacidade pesagem 100 kg, voltagem bateria interna recarregável, adaptador 12 vac-22 v, características adicionais display lcd, precisão o,05% rdg + 10g, tipo digital, dimensões 26 x 26 cm (aproximadamente), sensibilidade 0,05. (Balança para uso nas escolas e CMEIS no recebimento diretamente de carnes)</t>
-  </si>
-  <si>
-    <t>Balde em plástico resistente, com tampa, com alça e borda reforçada, capacidade para 20 litros (aproximadamente).</t>
-  </si>
-  <si>
-    <t>Bandeja. Material Polipropileno. Cor branco. Capacidade 12 litros. Dimensões do produto (LxAxP)37 x 41 x 42 cm(aproximadamente), Peso 2,8 Kg</t>
-  </si>
-  <si>
-    <t>Batedeira 350w sistema exclusivo de fixação, fácil de montar e limpar, com tigela de 4,3L (aproximadamente) que permite elaborar receitas com porções maiores, 4 velocidades + turbo, botão ejetor e batedores resistentes em aço cromado. Potência 127 v, em com branca. Embalagem contendo: 01 Batedeira, 01 par de batedores; 01 tigela; manual de instruções e assistência técnica. Marca igual ou superior a mondial.</t>
-  </si>
-  <si>
-    <t>Bule, em material alumínio, com capacidade mínima para 7 litros, com cabo de baquelite</t>
-  </si>
-  <si>
-    <t>Caixa organizadora em plástico com capacidade para 14,5 L (aproximadamente), com tampa e trava.</t>
-  </si>
-  <si>
-    <t>Caixa Organizadora Multiuso com Tampa 60l Transparente, Composição:100% Polipropileno, Capacidade:60Lts. Com tampa e trava.</t>
-  </si>
-  <si>
-    <t>Caixa Plástica grande com tampa com capacidade para 28 litros podendo ter variação de 1 para +ou-, resistente, atóxico Transparente ou branca</t>
-  </si>
-  <si>
-    <t>Calçado para trabalhos em cozinha: calçado ocupacional tipo sapato, fechado na parte do calcanhar e na parte superior, confeccionado em eva na cor branca, com solado de borracha antiderrapante, resistente ao escorregamento em piso cerâmico com solução de detergente e em piso de aço com solução de glicerol, palmilha em eva, com tecido parte superior, com antimicrobiano que atenua o odor nos pés. Cor: branca tamanhos: 35 ao 44 (aproximadamente)</t>
-  </si>
-  <si>
-    <t>Caneca material em polipropileno atóxico, de cores diversas (branca, laranja, azul, amarelo e verde) acabamento brilhante, resistência a temperatura de 100º Celsius por no mínimo 20 minutos, com capacidade mínima para 300 ml, contendo as seguintes dimensões: altura externa com aproximadamente no mínimo 83 mm, diâmetro interno da boca mínimo 75 mm, espessura da parede e fundo da caneca, no mínimo 2,5 mm e máximo de 3 mm, largura mínima da alça 1,5 cm.</t>
-  </si>
-  <si>
-    <t>Canecão polido c/cabo na lateral com tampa e capacidade p/2 lts 170x30x15cm (aproximadamente)</t>
-  </si>
-  <si>
-    <t>Chaleira Elétrica em Inox, capacidade para 1,8 Litros com desligamento automático, voltagem 110.</t>
-  </si>
-  <si>
-    <t>Chaleira, em material alumínio, com capacidade mínima para 4 litros, com cabo de baquelite</t>
-  </si>
-  <si>
-    <t>Coador de café com diâmetro aproximado de 15 cm, para bule com capacidade de 7 litros, aro em metal com cabo dos dois lados e filtro de pano.</t>
-  </si>
-  <si>
-    <t>Coador de café, para bule com capacidade de 3 litros, aro em metal com cabo dos dois lados e filtro de pano</t>
-  </si>
-  <si>
-    <t>Coador tipo peneira diâmetro 30. Coador tipo peneira, material aço inoxidável, diâmetro 30 (aproximadamente)</t>
-  </si>
-  <si>
-    <t>Colher para arroz, toda em aço inoxidável (inclusive cabo), sem rebite, solda, engates, e emendas, com cabo de aproximadamente 33 cm</t>
-  </si>
-  <si>
-    <t>Colher em aço inox inclusive o cabo, dimensões aproximadas comprimento x largura 16,5 x 3,5 cm (aproximadamente).</t>
-  </si>
-  <si>
-    <t>Colher em aço inox inclusive o cabo, peso aproximado 20g, dimensões aproximadas comprimento x largura 18 x 4,5 cm</t>
-  </si>
-  <si>
-    <t>Colher infantil em aço inox com cabo com comprimento de 104 mm, largura 26mm, altura 25mm (aproximadamente)</t>
-  </si>
-  <si>
-    <t>Colher para sopa, toda em aço inoxidável (inclusive cabo)</t>
-  </si>
-  <si>
-    <t>Concha nº10, toda em aço inoxidável (inclusive cabo), sem rebite, sem solda, sem engates, sem emendas, com cabo de aproximadamente 33 cm.</t>
-  </si>
-  <si>
-    <t>Conjunto de limpeza profissional carrinho com balde 24 litros. Com espaço para saco de lixo, vassouras, panos e rodos.</t>
-  </si>
-  <si>
-    <t>Copo com alça transparente liso 300 ml, personalizado conforme arte padrão pré estabelecida com brasão da Prefeitura Municipal de Mandirituba, de fácil limpeza, tampa com design a prova de vazamentos, com encaixe perfeito no copo e com bico rígido. A composição deve estar de acordo com a rdc nº 41/2011, sendo livre de bisfenol a. O copo não pode apresentar partes que possam cortar, beliscar ou causar algum ferimento a criança. Personalizada com arte e brasão da Prefeitura Municipal de Mandirituba, em um dos lados da garrafa. Em arte definida e fornecida pela Prefeitura Municipal de Mandirituba. Conforme modelo:</t>
-  </si>
-  <si>
-    <t>Copo produzido em vidro transparente, volume mínimo de 300 ml, altura mínima de 13 cm, Diâmetro mínimo 6,5 cm</t>
-  </si>
-  <si>
-    <t>Cortador de legumes com tripé, tipo manual, confeccionado em alumínio fundido com duas molas para maior resistência, com tripé de altura mínima 110cm, lâminas em aço inoxidável cambiáveis, macho em polipropileno, acompanha 02 lâminas com tamanho a definir (06, 08, 10 e 12mm)(aproximadamente), pintura eletrostática. O material deverá ter peças de reposição para molas, macho e navalhas.</t>
-  </si>
-  <si>
-    <t>Cumbuca plástica em polipropileno Material de primeira, atóxico, paredes internas e externas lisas, sem bordas, resistência a temperatura mínima 100°, capacidade mínima 300 ml</t>
-  </si>
-  <si>
-    <t>Descascador legumes manual. Material aço inoxidável, características adicionais manual, aplicação cozinha. Características adicionais: descascador de legumes manual totalmente em aço inoxidável e cabo anatômico. Dimensões aproximadas:18,2x 5,9x 1,8 cm</t>
-  </si>
-  <si>
-    <t>Dispenser para copo plástico, material aço inoxidável, material extremidade inox, uso copos descartáveis, capacidade copo 200 ml</t>
-  </si>
-  <si>
-    <t>Estante Em Aço Inoxidável Com 6 Prateleiras Lisas – desmontável, produzida 100 % em aço inoxidável de alta qualidade e resistência – Aço AISI 201, suportando até 480 kg de carga. Com a seguinte descrição: Estante medindo 1,5 metro de comprimento, 50 cm de largura e 2 metros de altura, (aproximadamente) com suportes laterais tubulares em aço inox, cada tudo dos pés com espessura de 1 mm e diâmetro de 1 ½ “ (uma polegada e meia), com pés bitolados ajustáveis, garantindo estabilidade e segurança. As prateleiras devem ser de chapa de aço inoxidável reforçadas com estruturação lisa de excelente acabamento e sem porosidade medindo (aproximadamente) 1,5 metro de comprimento e 50 cm de largura com 0.8 mm de espessura, suportar 80 kg carga cada, proporcionando alta qualidade e resistência.</t>
-  </si>
-  <si>
-    <t>Escada doméstica, material alumínio, número degraus 7un, revestimento degraus borracha antiderrapante, capacidade 120 kg</t>
-  </si>
-  <si>
-    <t>Escorredor de massa, em alumínio, com diâmetro de aproximadamente 40 cm, com suporte de apoio fixo.</t>
-  </si>
-  <si>
-    <t>Escova de limpeza de garrafa, copos, material: silicone, comp(aproximadamente): 33 cm, larg: 4 cm, cabo com gancho, livre de bpa.</t>
-  </si>
-  <si>
-    <t>Espátula, material: silicone, aplicação: tipo pão duro, material cabo: cabo plástico.</t>
-  </si>
-  <si>
-    <t>Espremedor de suco industrial em Inox, potência: 500w, bivolt, motor 1/3cv, com Copo alumínio 3 litros.</t>
-  </si>
-  <si>
-    <t>Espumadeira para frituras em aço inox inclusive o cabo, Medidas aproximadas, Diâmetro: 11 cm, comprimento total: 38,5 cm</t>
-  </si>
-  <si>
-    <t>Faca de serrilha, em aço inoxidável, com cabo em polipropileno na cor branca ou transparente</t>
-  </si>
-  <si>
-    <t>Faca para carne c/ lâmina de aço inox 10 c/cabo de polipropileno injetado diretamente sobre a espiga da lâmina medindo (aproximadamente) 33x21cm</t>
-  </si>
-  <si>
-    <t>Faca para pão c/ lâmina de aço inox ondulada, cabo de polipropileno injetado diretamente sobre a espiga da lâmina, dimensões aproximadas de 33,5 cm</t>
-  </si>
-  <si>
-    <t>FOGÃO INDUSTRIAL de alta pressão com grelhas reforçadas 30x30, 6 bocas. Queimadores e grelhas de ferro fundido, 3 queimadores duplos e 3 simples. Acompanhado de forno com no mínimo 90 litros de capacidade em chapa esmaltada. Estrutura reforçada em chapa de aço carbono #14 (2 mm). Desmontável. Com bandeja coletora de resíduos. Alimentação: GLP. Garantia mínima de 12 meses.</t>
-  </si>
-  <si>
-    <t>Forno Industrial - Tipo: A Gás, Material: Chapa Aço, Características Adicionais: Com 1 Câmara: 90x80x25cm, Material Puxador: Antitérmico, Tipo Câmera: Porta Vidro E Lastro Pedra Refratária Componentes: Com Cavalete Estrutura Pintada, Aplicação: Cozinha.</t>
-  </si>
-  <si>
-    <t>Forno elétrico; voltagem: 127 volts; dimensões mín.: 50 x 68 x 48 cm. peso: 13,5 kg. cap. mín. de 50l, com garantia mínima de fabricante de 12 meses.</t>
-  </si>
-  <si>
-    <t>Freezer horizontal - com capacidade mínima de 519l, duas portas, 4 rodinhas nos pés, pés com rodízio, interior de liga metálica de alta resistência a corrosão, controle eletrônico, dreno de degelo, display com led, potência mínima de 160w, tensão/voltagem 127v ou bivolt, com manual de instrução, garantia mínima de 12 meses.</t>
-  </si>
-  <si>
-    <t>Frasco multiuso borrifador, de polipropileno transparente, com válvula longa spray que alcança no fundo do frasco, sugando desta forma todo conteúdo mesmo quando o produto estiver no fim, com capacidade de 1 litro.</t>
-  </si>
-  <si>
-    <t>Frigideira grande, com profundidade mínima de 7 cm, em alumínio com revestimento interno antiaderente, diâmetro de 32 cm.</t>
-  </si>
-  <si>
-    <t>Funil de plástico, tamanho médio, na cor branca.</t>
-  </si>
-  <si>
-    <t>Garfo em inox para sobremesa</t>
-  </si>
-  <si>
-    <t>Garfo, todo em aço inoxidável (inclusive cabo).</t>
-  </si>
-  <si>
-    <t>Garrafa para Água polipropileno; tipo Squeeze Acqua Bio Degradê. Capacidade entre 350 ml; Cores diversas de Alta Densidade, com dimensões 20 x 06 x 06 cm (A x L x D). Em Material Atóxico; Tampa Rosqueável; Personalizada com arte e brasão da Prefeitura Municipal de Mandirituba, em um dos lados da garrafa. Em arte definida e fornecida pela Prefeitura Municipal de Mandirituba. Conforme modelo:</t>
-  </si>
-  <si>
-    <t>Garrafa térmica inquebrável em aço inoxidável c/ capacidade para 2 lts</t>
-  </si>
-  <si>
-    <t>Garrafa térmica, corpo plástico, ampola de vidro e rolha dosadora. Capacidade para 01 litro. Qualidade igual ou superior à marca Termolar.</t>
-  </si>
-  <si>
-    <t>Garrafa térmica, corpo plástico, ampola de vidro e rolha dosadora. Capacidade para 05 litros. Qualidade igual ou superior à marca Termolar.</t>
-  </si>
-  <si>
-    <t>Geladeira Vertical Industrial - 4 Portas: Refrigerador industrial, vertical, 04 portas, capacidade aproximada de 1044 litros. Na Voltagem de 127 V; Especificações técnicas: Refrigeração: Ar forçado com evaporador aletado, Temperatura: 0 a +7C, Degelo: Manual, Controlador eletrônico com indicador de temperatura, Revestimento Interno: Aço Galvanizado, Revestimento Externo: Aço Inox 430, Resistência no quadro de portas 4 níveis de prateleiras aramadas, reguláveis, Pés niveladores, Construção do Gabinete: Monobloco, Parte frontal com resistência no quadro de portas, Altura: (aproximadamente) 2,03cm, Profundidade: 0,67cm, Frente: 1,18cm, Peso Líquido: 120kg, Consumo: 7kW/dia, Classe: ( 4 ).</t>
-  </si>
-  <si>
-    <t>Jarra medidora em plástico resistente com tampa, capacidade 2 litros</t>
-  </si>
-  <si>
-    <t>Jarra plástica com capacidade aproximada mínima de 3,5 litros, em plástico branco ou incolor transparente.</t>
-  </si>
-  <si>
-    <t>Kit esfregão mop – cabo e refil mop giratório, possui um cabo de aço inox que não enferruja com regulagem de altura 1,04 metros a 1,28 metros e 1 refil de microfibra, possui alta absorção, não solta os fiapos é lavavel em maquinas – em cores variadas.</t>
-  </si>
-  <si>
-    <t>Lavadora de Alta Pressão: Voltagem: 110V, Pressão:1750 Libras, Potencia: 1500W acessórios: pistola de alta pressão com trava de segurança; baioneta; lança com bico regulável; mangueira de alta pressão de 3 metros; engate-rápido), manual de instruções e Garantia: 12 meses</t>
-  </si>
-  <si>
-    <t>Limpadora a Vapor mínima de 1500W, saída de calor (w) 1500 máxima pressão do vapor (bar): 3,2 comprimento do cabo elétrico (m):5 tempo de aquecimento (min): 3 capacidade do tanque (L): 1,20 tensão (V/Hz): 110/60 peso (com embalagem) (kg): 5,4 medidas (CxLxA) (mm): 380x251x273. Itens inclusos: bocal de piso, pano de microfibra para local de piso, bocas de jato pontual, escovas circulares, tubos prolongadores, bocal manual, pano de microfibra para bocal Manuel, descalcificante, garantia de 12 meses.</t>
-  </si>
-  <si>
-    <t>Liquidificador industrial 2 litros, potência mínima 800w, jarro em aço inox 110volt. Ou bivolt.</t>
-  </si>
-  <si>
-    <t>Liquidificador turbo minima 900w 2,6L; 4 velocidades + função pulsar – autolimpeza conjunto de facas integradas ao copo que impede vazamentos; faca de 4 lâminas; potência mínima de 900w; tampa com sobre tampa; base antiderrapante; porta fio</t>
-  </si>
-  <si>
-    <t>Lixeira doméstica em plástico resistente. Capacidade para 11 litros, com pedal.</t>
-  </si>
-  <si>
-    <t>Lixeira em polipropileno altamente resistente, capacidade mínima de 30 litros, abertura/fechamento com pedal, sendo movimentado em metal de marca igual ou superior à marca Perfect.</t>
-  </si>
-  <si>
-    <t>Lixeira em polipropileno altamente resistente, capacidade mínima de 100 litros, abertura/fechamento com pedal, na cor branca</t>
-  </si>
-  <si>
-    <t>Luva de proteção térmica, em tecido metalizado com bordado 100% algodão, viés 100% algodão, manta 100% algodão, com dimensões aproximadas de 32x18cm, e garantia de 3 meses do fornecedor.</t>
-  </si>
-  <si>
-    <t>Mesa de apoio de aço inox mesa de apoio fabricada em aço carbono com pintura eletrostática, com tampo em chapa inteiriça de aço inox 430, com paneleiro. dimensões aproximadamente: altura 91,5 cm, largura 150 cm, comprimento 70 cm.</t>
-  </si>
-  <si>
-    <t>Microondas - mínimo 30L display digital; painel de controle eletrônico; cor branca; prato giratório; descongelamento; 3 níveis de potência; Timer; relógio; trava de segurança; puxador; alimentação 127V; potência 800w; dimensões aproximadas (LxAxP) 50x30x42cm. Garantia de 1 ano pelo fabricante.</t>
-  </si>
-  <si>
-    <t>Mamadeira com bico universal de silicone; Composição/material: pp e silicone; peso aproximado do produto (kg): 0,174kg; capacidade (ml): 250ml; certificação do inmetro, com matéria prima livre de bisfenol a (bpa); estampas sortidas.</t>
-  </si>
-  <si>
-    <t>Multiprocessador de alimentos - 1000 W de potência, 7 em 1 com lâminas em aço inox afiados, tensão 127W, de fácil manuseio. Liquidificador: para fazer de sucos, molhos. Processador: para moer, picar, cortar, fatiar, ralar e triturar diversos alimentos.</t>
-  </si>
-  <si>
-    <t>Panela de pressão, em alumínio, com. Capacidade mínima para 3 litros</t>
-  </si>
-  <si>
-    <t>Panela de pressão, em alumínio, com. Capacidade mínima para 5 litros</t>
-  </si>
-  <si>
-    <t>Panela de pressão, em alumínio, com capacidade mínima para 12 litros, com fechamento externo.</t>
-  </si>
-  <si>
-    <t>Panela do tipo caçarola nº 24, em material alumínio, borda baixa, sem virola, com capacidade aproximada de 5 litros</t>
-  </si>
-  <si>
-    <t>Panela do tipo caçarola nº 38, em material alumínio, borda baixa, sem virola, com capacidade aproximada de 15 litros.</t>
-  </si>
-  <si>
-    <t>Panela do tipo caçarola nº 45, em material alumínio, borda baixa, sem virola, com capacidade aproximada de 30 litros.</t>
-  </si>
-  <si>
-    <t>Panela do tipo caldeirão nº 24, em material alumínio, borda baixa, sem virola, com capacidade aproximada de 5 litros</t>
-  </si>
-  <si>
-    <t>Panela do tipo caldeirão nº 30, em material alumínio, borda alta, sem virola, com capacidade aproximada de 15 litros</t>
-  </si>
-  <si>
-    <t>Panquequeira, material: alumínio. tipo: panquequeira. Diâmetro: 20 cm. Características adicionais: com revestimento antiaderente, invertida</t>
-  </si>
-  <si>
-    <t>Pegador de massa, todo em aço inoxidável (inclusive cabo), tipo concha, sem rebite, sem solda, sem engates, sem emendas.</t>
-  </si>
-  <si>
-    <t>Pegador de salada, todo em aço inoxidável (inclusive cabo).</t>
-  </si>
-  <si>
-    <t>Peneira plástica em malha fina (poliéster) cabo resistente com gancho de apoio, medida aproximada 12 cm.</t>
-  </si>
-  <si>
-    <t>Placa sinalizadora ("cuidado piso molhado"), dimensões: largura 30cm x altura 62cmposição de uso: altura 57cm x entre faces 49cm. Cor: amarela. Placa em material de alta durabilidade e resistência em polipropileno injetado, dobrável, para identificar áreas molhadas.</t>
-  </si>
-  <si>
-    <t>Pote plástico retangular c/ capacidade para 16 litros podendo ter variação de 2 para +ou-, resistente, atóxico transparente ou branca com tampa e trava</t>
-  </si>
-  <si>
-    <t>Pote plástico retangular c/ capacidade para 8 litros podendo ter variação de 1 para +ou-, resistente, atóxico transparente ou branca e fechamento hermético.</t>
-  </si>
-  <si>
-    <t>Pote retangular c/ capacidade para 4 lts. Podendo ter variação de 750 ml para +ou- , resistente atóxico com proteção antibacteriana e fechamento hermético.</t>
-  </si>
-  <si>
-    <t>Pote retangular c/ tampa c/ cap. Para 1 litro, podendo ter variação de 150ml para + ou - resistente atóxico, com proteção antibacteriana E fechamento hermético</t>
-  </si>
-  <si>
-    <t>Pote retangular c/ tampa c/ cap. Para 2 lts, podendo ter variação de 500 ml para+ ou - resistente atóxico, com proteção antibacteriana e fechamento hermético.</t>
-  </si>
-  <si>
-    <t>Potes organizadores em plástico com capacidade 20 L, com tampa e trava na cor branco gelo</t>
-  </si>
-  <si>
-    <t>Potes organizadores em plástico com capacidade para 60 L, com tampa e trava na cor branco gelo, com dimensões 57,5X40,4X32,5 CM.</t>
-  </si>
-  <si>
-    <t>Prato de plástico para refeição: uso para merenda escolar, fundo de qualidade, durabilidade, atóxico, dimensões aproximadas: 22cmx 4 cm, prato circular.</t>
-  </si>
-  <si>
-    <t>Prato fundo em vidro incolor, com qualidade igual ou superior a marca Duratex.</t>
-  </si>
-  <si>
-    <t>Prato raso em vidro incolor, com qualidade igual ou superior a marca Duralex</t>
-  </si>
-  <si>
-    <t>Processador de alimentos manual grande 5 lâminas inox, material do corpo polipropileno, 900ml med. CxL 14 x13 cm</t>
-  </si>
-  <si>
-    <t>Ralador de alimentos/legumes em alumínio resistente, 4 facas.</t>
-  </si>
-  <si>
-    <t>Refrigerador Frost Free - com capacidade mínima 474 Litros. Cor: Branca. Puxador ergonômico e painel Blue Touch espelhado Flex Box Prateleira do freezer retrátil com turbo congelamento Super capacidade do freezer com no mínimo 128 litros Funções digitais no painel blue touch externo Funções Turbo freezer, Ice Express e Controle da Temperatura do freezer Duplo gavetão de frutas e legumes - Espaço com abertura ergonômica, que auxilia na organização e visualização dos alimentos. Cesta Porta Ovos removível (12 unidades) - Espaço Extra Frio Trava-Garrafas aproveitável - Iluminação interna. Ficha técnica do produto: Alarme de porta aberta, Cesta porta ovos, compartimento congelamento rápido, compartimento extra frio, degelo automático, iluminação interna, pés niveladores, rodízios, garantia do produto mínima de 01 ano, classificação energética a tensão: 127Volts.</t>
-  </si>
-  <si>
-    <t>Refil algodão esfregão profissional para mop giratório.</t>
-  </si>
-  <si>
-    <t>Rodo esfregão abrasivo esponja lava piso azulejo, espuma de poliuretano e fibra sintética, cabo de madeira revestido medindo 1.20 m</t>
-  </si>
-  <si>
-    <t>Saladeira de plástico retangular com tampa 8 litros</t>
-  </si>
-  <si>
-    <t>Tabua para cortar carne, em material policabornato, medindo aproximadamente 30cm x 50cm x 10mm. Cor branca.</t>
-  </si>
-  <si>
-    <t>Tabua para cortar carne, em polipropileno, medindo aproximadamente 30cm x 50cm x 10mm. Cor branca.</t>
-  </si>
-  <si>
-    <t>Tábuas de corte em vidro temperado, com 40 cm de largura e com pés antiderrapantes, higiênica, fácil de limpar, medidas aproximadas 40 cm x 40 cm x 0,5 cm.</t>
-  </si>
-  <si>
-    <t>Torre de Som potência minima 1,6W, alto-falantes 1 Woofer, Tweeter, configurações de canais 2.1, bateria 5h, quantidade de caixas de som 5, com luzes de LED, com modo mãos livres, com rádio, com bluetooth, altura 75cm peso 10.500kg , tipos de alimentação corrente elétrica e bateria, cor preto 110v/220v, com garantia 12 meses</t>
-  </si>
-  <si>
-    <t>Ventilador de coluna altura mínima de 1,30cm e 03 velocidades, potência mínima de 120w, oscilação horizontal, inclinação regulável, cor preta, 110 Volts, 12 meses de garantia</t>
-  </si>
-  <si>
-    <t>Ventiladores de Coluna altura minima 1,30cm potência mínima 160w 127v, 3 velocidades, hélice de 6 pás de 40cm, 12 meses de garantia</t>
-  </si>
-  <si>
-    <t>Ventilador de parede - cor preta, potência mínima de 130w, altura mínima de 115cm e máxima de 170cm, profundidade 20cm, altura 50cm, largura 50cm, peso 2.3 kg. Garantia do fornecedor de 12 meses, voltagem 127v</t>
+    <t>Abridor de lata reforçado, em inox, com espessura mínima de 1,0 mm.</t>
+  </si>
+  <si>
+    <t>Açucareiro com colher em plástico resistente na cor preta, capacidade 300 mL.</t>
+  </si>
+  <si>
+    <t>Assadeira redonda, alumínio resistente, dimensões aproximadas 6 cm × 25 cm.</t>
+  </si>
+  <si>
+    <t>Assadeira retangular média, alumínio resistente, dimensões aproximadas 40 cm × 30 cm × 4 cm.</t>
+  </si>
+  <si>
+    <t>Avental em PVC branco 1,20 × 0,70 m para cozinha.</t>
+  </si>
+  <si>
+    <t>Bacia canelada em plástico resistente, capacidade para 35 litros.</t>
+  </si>
+  <si>
+    <t>Bacia plástica branca ou incolor com capacidade aproximada mínima de 13,5 litros.</t>
+  </si>
+  <si>
+    <t>Bacia plástica branca ou incolor com capacidade aproximada mínima de 4 litros.</t>
+  </si>
+  <si>
+    <t>Balança doméstica digital, capacidade 150 kg, display digital, plataforma de vidro temperado, dimensões 30 cm × 3 cm × 30 cm.</t>
+  </si>
+  <si>
+    <t>Balança eletrônica, capacidade 100 kg, bateria recarregável, display LCD, precisão 0,05%, dimensões 26 × 26 cm.</t>
+  </si>
+  <si>
+    <t>Balde em plástico resistente, com tampa, alça e borda reforçada, capacidade para 20 litros.</t>
+  </si>
+  <si>
+    <t>Bandeja em polipropileno, cor branca, capacidade 12 litros, dimensões 37 cm × 41 cm × 42 cm.</t>
+  </si>
+  <si>
+    <t>Batedeira 350 W, tempero portátil, 4 velocidades + turbo, tigela 4,3 L, estágio de inox cromado, 127 V, embalagem contendo 1 batedeira, 1 par de batedores, 1 tigela, manual de instruções.</t>
+  </si>
+  <si>
+    <t>Bule em alumínio, capacidade mínima de 7 L, com cabo de baquelite.</t>
+  </si>
+  <si>
+    <t>Caixa organizadora em plástico com capacidade para 14,5 L, tampa e travamento.</t>
+  </si>
+  <si>
+    <t>Caixa organizadora multiuso, tampa 60 L, transparente, com travamento.</t>
+  </si>
+  <si>
+    <t>Caixa plástica grande com tampa, capacidade para 28 L, material atóxico, transparente ou branca.</t>
+  </si>
+  <si>
+    <t>Calçado de trabalho em cozinha: sapato de aquarela em EVA, cor branca, solado de borracha antiderrapante, tamanho 35 a 44.</t>
+  </si>
+  <si>
+    <t>Caneca polipropileno atóxico, cores variadas (branca, laranja, azul, amarelo, verde), 300 mL, altura 83 mm, diâmetro interna 75 mm, espessura 2,5–3 mm, alça 1,5 cm.</t>
+  </si>
+  <si>
+    <t>Canecão polido com cabo, tampa, capacidade 2 L, dimensões 170 mm × 30 mm × 15 mm.</t>
+  </si>
+  <si>
+    <t>Chaleira elétrica inox, 1,8 L, desligamento automático, 110 V.</t>
+  </si>
+  <si>
+    <t>Chaleira em alumínio, 4 L, cabo de baquelite.</t>
+  </si>
+  <si>
+    <t>Coador de café, diâmetro 15 cm, capacidade 7 L, aro metal, cabo de ambos lados, filtro de pano.</t>
+  </si>
+  <si>
+    <t>Coador de café, 3 L, aro metal, cabo de ambos lados, filtro de pano.</t>
+  </si>
+  <si>
+    <t>Coador tipo peneira, diâmetro 30 cm, material aço inoxidável.</t>
+  </si>
+  <si>
+    <t>Colher de arroz, aço inoxidável, cabo 33 cm, sem rebete, solda, engates, emendas.</t>
+  </si>
+  <si>
+    <t>Colher em aço inoxidável, dimensões 16,5 cm × 3,5 cm.</t>
+  </si>
+  <si>
+    <t>Colher em aço inoxidável, peso 20 g, dimensões 18 cm × 4,5 cm.</t>
+  </si>
+  <si>
+    <t>Colher infantil em aço inoxidável, comprimento 104 mm, largura 26 mm, altura 25 mm.</t>
+  </si>
+  <si>
+    <t>Colher para sopa, aço inoxidável.</t>
+  </si>
+  <si>
+    <t>Concha nº10, aço inoxidável, cabo 33 cm, sem rebete, sem solda, sem engates.</t>
+  </si>
+  <si>
+    <t>Carrinho de limpeza profissional com balde de 24 L e espaço para sacos, vassouras, panos e rodos.</t>
+  </si>
+  <si>
+    <t>Copo com alça transparente, 300 mL, personalizado com brasão da Prefeitura, tampa à prova de vazamentos, encaixe perfeito, sem bisfenol.</t>
+  </si>
+  <si>
+    <t>Copo de vidro transparente, 300 mL, altura mínima 13 cm, diâmetro mínimo 6,5 cm.</t>
+  </si>
+  <si>
+    <t>Cortador de legumes com tripé, alumínio fundido, molas, lâminas de aço inoxidável, macho de polipropileno, 2 lâminas 6–12 mm.</t>
+  </si>
+  <si>
+    <t>Cumbuca plástica em polipropileno, atóxico, paredes internas e externas lisas, temperatura mínima 100°, capacidade 300 mL.</t>
+  </si>
+  <si>
+    <t>Descascador de legumes manual, aço inoxidável, cabo anatômico, dimensões 18,2 cm × 5,9 cm × 1,8 cm.</t>
+  </si>
+  <si>
+    <t>Dispenser para copo plástico, aço inoxidável, extremidade inox, 200 mL.</t>
+  </si>
+  <si>
+    <t>Estante de aço inoxidável com 6 prateleiras, 1,5 m × 50 cm × 2 m, suportes laterais tubulares, 1,5 pol, 1,8".</t>
+  </si>
+  <si>
+    <t>Escada doméstica de alumínio, 7 degraus, revestimento de borracha antiderrapante, pés antiderrapantes, trava de segurança, capacidade 150 kg.</t>
+  </si>
+  <si>
+    <t>Escorredor de massa em alumínio, diâmetro 40 cm, suporte de apoio fixo.</t>
+  </si>
+  <si>
+    <t>Escova de limpeza de garrafas, silicone, 33 cm de comprimento, 4 cm de largura, gancho, livre de BPA.</t>
+  </si>
+  <si>
+    <t>Espátula de silicone, cabo plástico, para pão duro.</t>
+  </si>
+  <si>
+    <t>Espremedor de suco industrial inox, 500 W, motor 1/3 CV, copo de alumínio 3 L.</t>
+  </si>
+  <si>
+    <t>Espumadeira de aço inoxidável, cabo 38,5 cm, diâmetro 11 cm.</t>
+  </si>
+  <si>
+    <t>Faca de serrilha em aço inoxidável, cor branca ou transparente.</t>
+  </si>
+  <si>
+    <t>Faca para carne, lâmina de aço inoxidável, cabo de polipropileno injetado, tamanho 33 cm × 21 cm.</t>
+  </si>
+  <si>
+    <t>Faca para pão, lâmina ondulada de aço inoxidável, cabo de polipropileno injetado, tamanho 33,5 cm.</t>
+  </si>
+  <si>
+    <t>Fogão industrial de alta pressão, grelhas reforçadas 30 × 30 cm, 6 bocas, queimadores duplos e simples.</t>
+  </si>
+  <si>
+    <t>Forno industrial gás, chapa de aço, 1 camará, porta de vidro, 1,8 m × 0,7 m, potência 2.5 kW.</t>
+  </si>
+  <si>
+    <t>Forno elétrico, 127 V, 50 × 68 × 48 cm, 13,5 kg, 50 L, 12 meses de garantia.</t>
+  </si>
+  <si>
+    <t>Freezer horizontal, 519 L, 2 portas, 4 rodinhas, controle eletrônico, 160 W, 12 meses de garantia.</t>
+  </si>
+  <si>
+    <t>Frasco multiuso borrifador, polipropileno transparente, 1 L, válvula longa spray.</t>
+  </si>
+  <si>
+    <t>Frigideira grande, 32 cm de diâmetro, 7 cm de profundidade, antiaderente interno, alumínio.</t>
+  </si>
+  <si>
+    <t>Funil plástico, tamanho médio, cor branca.</t>
+  </si>
+  <si>
+    <t>Garfo em inox para sobremesa, 244 unidades.</t>
+  </si>
+  <si>
+    <t>Garfo em inox, 620 unidades.</t>
+  </si>
+  <si>
+    <t>Garrafas de água em polipropileno, 350 mL padrão.</t>
+  </si>
+  <si>
+    <t>Garrafa térmica inquebrável de aço inoxidável, 2 L de capacidade.</t>
+  </si>
+  <si>
+    <t>Garrafa térmica plástica de 1 L, tampa automática, cor preta.</t>
+  </si>
+  <si>
+    <t>Garrafa térmica 5 L, com válvula de torneira e tampa.</t>
+  </si>
+  <si>
+    <t>Refrigerador expositor vertical, 1,277 L de capacidade, evaporador aletado, 2,8 m de altura, 72 cm de largura, 71 cm de profundidade, portas reversíveis.</t>
+  </si>
+  <si>
+    <t>Jarra de plástico 2 L, tampa.</t>
+  </si>
+  <si>
+    <t>Jarra plástica 3 L, tampa.</t>
+  </si>
+  <si>
+    <t>Mop úmido de microfibra, 80 unidades.</t>
+  </si>
+  <si>
+    <t>Lavadora de alta pressão, 1,7 kW, 110 V, 420 L/h, 1.740 lb.</t>
+  </si>
+  <si>
+    <t>Aspirador de pó e água, 1,4 kW, 110 V, 3 níveis de filtragem.</t>
+  </si>
+  <si>
+    <t>Liquidificador industrial, cuba de aço inox, base de alumínio, 2 L, 1/3 CV, 220 V.</t>
+  </si>
+  <si>
+    <t>Liquidificador 3 L, 220 V, 4 velocidades.</t>
+  </si>
+  <si>
+    <t>Lixeira 11 L, 32 unidades.</t>
+  </si>
+  <si>
+    <t>Lixeira 11 L, 40 unidades.</t>
+  </si>
+  <si>
+    <t>Lixeira 30 L, 30 unidades.</t>
+  </si>
+  <si>
+    <t>Luvas de proteção térmica, algodão, 50 pares, tamanho P até G, 32 × 18 cm.</t>
+  </si>
+  <si>
+    <t>Mesa de inox com 12 unidades.</t>
+  </si>
+  <si>
+    <t>Microondas 30 L, 12 V, 800 W, timer, trava de segurança.</t>
+  </si>
+  <si>
+    <t>Mamadeira de polipropileno, 250–150 mL, silicone, 125 unidades.</t>
+  </si>
+  <si>
+    <t>Multiprocessador de alimentos, 1 kW, 7 em 1, 20 unidades.</t>
+  </si>
+  <si>
+    <t>Panela de pressão 3 L, 73,8  R$ , 15 unidades.</t>
+  </si>
+  <si>
+    <t>Panela de pressão 5 L, 85,08  R$ , 17 unidades.</t>
+  </si>
+  <si>
+    <t>Panela de pressão 12 L, 353,23  R$ , 10 unidades.</t>
+  </si>
+  <si>
+    <t>Caçarola 5 L, 84,61  R$ , 43 unidades.</t>
+  </si>
+  <si>
+    <t>Caçarola 15 L, 123,15  R$ , 35 unidades.</t>
+  </si>
+  <si>
+    <t>Caçarola 30 L, 176,97  R$ , 38 unidades.</t>
+  </si>
+  <si>
+    <t>Utensílio doméstico de panela, 87,63  R$ , 41 unidades.</t>
+  </si>
+  <si>
+    <t>Caldeirão 15 L, 123,10  R$ , 42 unidades.</t>
+  </si>
+  <si>
+    <t>Panquequeira 20 cm, 31,61  R$ , 15 unidades.</t>
+  </si>
+  <si>
+    <t>Pegador de massa, 24,47  R$ , 65 unidades.</t>
+  </si>
+  <si>
+    <t>Pegador de salada, 15,26  R$ , 32 unidades.</t>
+  </si>
+  <si>
+    <t>Peneira de plástico, 5,85  R$ , 23 unidades.</t>
+  </si>
+  <si>
+    <t>Pote 16,7 L, 27,02  R$ , 78 unidades.</t>
+  </si>
+  <si>
+    <t>Pote 8,6 L, 20,26  R$ , 78 unidades.</t>
+  </si>
+  <si>
+    <t>Pote 4,3 L, 25,14  R$ , 75 unidades.</t>
+  </si>
+  <si>
+    <t>Prato 1,9 L, 11,79  R$ , 70 unidades.</t>
+  </si>
+  <si>
+    <t>Prato 2 L, 13,07  R$ , 68 unidades.</t>
+  </si>
+  <si>
+    <t>Organizador plástico 21 L, 42,82  R$ , 70 unidades.</t>
+  </si>
+  <si>
+    <t>Caixa plástica 60 L, 84,17  R$ , 65 unidades.</t>
+  </si>
+  <si>
+    <t>Prato plástico 22 cm × 4 cm, 4,20  R$ , 3 500 unidades.</t>
+  </si>
+  <si>
+    <t>Prato de vidro 26 cm, 7,32  R$ , 239 unidades.</t>
+  </si>
+  <si>
+    <t>Prato de vidro 18 cm, 8,31  R$ , 239 unidades.</t>
+  </si>
+  <si>
+    <t>Cortador de legumes, 22,92  R$ , 18 unidades.</t>
+  </si>
+  <si>
+    <t>Ralador de alimentos, 24,87  R$ , 21 unidades.</t>
+  </si>
+  <si>
+    <t>Refrigerador duplex 470 L refrigeração, 115 L congelação, 186 cm de altura, 72 cm de largura, 71 cm de profundidade.</t>
+  </si>
+  <si>
+    <t>Mop úmido 150 unidades, 14,43  R$ .</t>
+  </si>
+  <si>
+    <t>Escova de limpeza geral 120 unidades, 15,24  R$ .</t>
+  </si>
+  <si>
+    <t>Pote plástico retangular 16 L, 24,69  R$ .</t>
+  </si>
+  <si>
+    <t>Prancha de alimentos 20 unidades, 138,30  R$ .</t>
+  </si>
+  <si>
+    <t>Prancha de alimentos 22 unidades, 44,30  R$ .</t>
+  </si>
+  <si>
+    <t>Prancha de alimentos 18 unidades, 48,11  R$ .</t>
+  </si>
+  <si>
+    <t>Caixa de som 1 unidade, 1 570,80  R$ .</t>
+  </si>
+  <si>
+    <t>Ventilador de coluna 20 unidades, 259,81  R$ .</t>
+  </si>
+  <si>
+    <t>Ventilador de coluna 3 unidades, 279,53  R$ .</t>
+  </si>
+  <si>
+    <t>Ventilador de parede 20 unidades, 272,24  R$ .</t>
+  </si>
+  <si>
+    <t>Xícara porcelana 200 unidades, 19,72  R$ .</t>
+  </si>
+  <si>
+    <t>Carro de limpeza 20 unidades, 1 205,31  R$ .</t>
+  </si>
+  <si>
+    <t>Refrigerador expositor 3 unidades, 20 638,26  R$ .</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1473,13 +1479,13 @@
         <v>100.4</v>
       </c>
       <c r="G2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1502,13 +1508,13 @@
         <v>412.6</v>
       </c>
       <c r="G3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1531,13 +1537,13 @@
         <v>653.4000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1557,16 +1563,16 @@
         <v>32.06</v>
       </c>
       <c r="F5">
-        <v>961.8000000000001</v>
+        <v>961.8</v>
       </c>
       <c r="G5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1589,13 +1595,13 @@
         <v>1841</v>
       </c>
       <c r="G6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1618,13 +1624,13 @@
         <v>1740.5</v>
       </c>
       <c r="G7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1647,13 +1653,13 @@
         <v>861.5</v>
       </c>
       <c r="G8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1676,13 +1682,13 @@
         <v>618</v>
       </c>
       <c r="G9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1705,13 +1711,13 @@
         <v>1098.9</v>
       </c>
       <c r="G10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1734,13 +1740,13 @@
         <v>19818.45</v>
       </c>
       <c r="G11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1763,13 +1769,13 @@
         <v>934</v>
       </c>
       <c r="G12" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I12" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1792,13 +1798,13 @@
         <v>1392.8</v>
       </c>
       <c r="G13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1821,13 +1827,13 @@
         <v>1776.6</v>
       </c>
       <c r="G14" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H14" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1850,13 +1856,13 @@
         <v>3298.8</v>
       </c>
       <c r="G15" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H15" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1876,16 +1882,16 @@
         <v>37.52</v>
       </c>
       <c r="F16">
-        <v>3752</v>
+        <v>3752.000000000001</v>
       </c>
       <c r="G16" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H16" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I16" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1908,13 +1914,13 @@
         <v>5854.8</v>
       </c>
       <c r="G17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H17" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I17" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1937,13 +1943,13 @@
         <v>2745.54</v>
       </c>
       <c r="G18" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H18" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I18" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1966,13 +1972,13 @@
         <v>2682.24</v>
       </c>
       <c r="G19" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H19" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I19" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1995,13 +2001,13 @@
         <v>16640</v>
       </c>
       <c r="G20" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H20" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2024,13 +2030,13 @@
         <v>802.2</v>
       </c>
       <c r="G21" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H21" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2053,13 +2059,13 @@
         <v>1129.56</v>
       </c>
       <c r="G22" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H22" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I22" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2082,13 +2088,13 @@
         <v>1538.75</v>
       </c>
       <c r="G23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H23" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I23" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2111,13 +2117,13 @@
         <v>881.2800000000001</v>
       </c>
       <c r="G24" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H24" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I24" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2140,13 +2146,13 @@
         <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H25" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I25" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2169,13 +2175,13 @@
         <v>580.2</v>
       </c>
       <c r="G26" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H26" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I26" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2198,13 +2204,13 @@
         <v>1321.8</v>
       </c>
       <c r="G27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I27" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2227,13 +2233,13 @@
         <v>3143</v>
       </c>
       <c r="G28" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H28" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I28" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2256,13 +2262,13 @@
         <v>17520</v>
       </c>
       <c r="G29" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H29" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I29" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2285,13 +2291,13 @@
         <v>2152</v>
       </c>
       <c r="G30" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H30" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I30" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2314,13 +2320,13 @@
         <v>2015</v>
       </c>
       <c r="G31" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H31" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2340,16 +2346,16 @@
         <v>32.59</v>
       </c>
       <c r="F32">
-        <v>912.5200000000001</v>
+        <v>912.52</v>
       </c>
       <c r="G32" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H32" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I32" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2372,13 +2378,13 @@
         <v>72318.59999999999</v>
       </c>
       <c r="G33" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H33" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I33" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2401,13 +2407,13 @@
         <v>23548</v>
       </c>
       <c r="G34" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H34" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I34" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2430,13 +2436,13 @@
         <v>719.4</v>
       </c>
       <c r="G35" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H35" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I35" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2459,13 +2465,13 @@
         <v>1996.28</v>
       </c>
       <c r="G36" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H36" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I36" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2488,13 +2494,13 @@
         <v>21615</v>
       </c>
       <c r="G37" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H37" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I37" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2517,13 +2523,13 @@
         <v>287</v>
       </c>
       <c r="G38" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H38" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I38" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2546,13 +2552,13 @@
         <v>972</v>
       </c>
       <c r="G39" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2575,13 +2581,13 @@
         <v>28297.08</v>
       </c>
       <c r="G40" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H40" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2604,13 +2610,13 @@
         <v>7665.48</v>
       </c>
       <c r="G41" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H41" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I41" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2633,13 +2639,13 @@
         <v>629.52</v>
       </c>
       <c r="G42" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H42" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I42" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2662,13 +2668,13 @@
         <v>375</v>
       </c>
       <c r="G43" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H43" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2691,13 +2697,13 @@
         <v>606.5999999999999</v>
       </c>
       <c r="G44" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H44" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I44" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2720,13 +2726,13 @@
         <v>3508.05</v>
       </c>
       <c r="G45" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H45" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I45" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2749,13 +2755,13 @@
         <v>195.6</v>
       </c>
       <c r="G46" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H46" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I46" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2778,13 +2784,13 @@
         <v>831</v>
       </c>
       <c r="G47" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H47" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I47" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2807,13 +2813,13 @@
         <v>2376.92</v>
       </c>
       <c r="G48" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H48" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I48" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2836,13 +2842,13 @@
         <v>517.6</v>
       </c>
       <c r="G49" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H49" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I49" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2865,13 +2871,13 @@
         <v>31512.6</v>
       </c>
       <c r="G50" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H50" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I50" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2894,13 +2900,13 @@
         <v>21794.64</v>
       </c>
       <c r="G51" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H51" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I51" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2923,13 +2929,13 @@
         <v>9401.76</v>
       </c>
       <c r="G52" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H52" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I52" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2952,13 +2958,13 @@
         <v>48694.8</v>
       </c>
       <c r="G53" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H53" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I53" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2981,13 +2987,13 @@
         <v>1527.5</v>
       </c>
       <c r="G54" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H54" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I54" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3010,13 +3016,13 @@
         <v>1931.4</v>
       </c>
       <c r="G55" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H55" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I55" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3039,13 +3045,13 @@
         <v>73.94999999999999</v>
       </c>
       <c r="G56" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H56" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I56" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3068,13 +3074,13 @@
         <v>780.8000000000001</v>
       </c>
       <c r="G57" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H57" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I57" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3097,13 +3103,13 @@
         <v>2461.4</v>
       </c>
       <c r="G58" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H58" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I58" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3126,13 +3132,13 @@
         <v>61360.00000000001</v>
       </c>
       <c r="G59" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H59" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I59" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3155,13 +3161,13 @@
         <v>4798</v>
       </c>
       <c r="G60" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H60" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I60" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3184,13 +3190,13 @@
         <v>465.3</v>
       </c>
       <c r="G61" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H61" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I61" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3213,13 +3219,13 @@
         <v>1723.8</v>
       </c>
       <c r="G62" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H62" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I62" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3242,13 +3248,13 @@
         <v>61914.78</v>
       </c>
       <c r="G63" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H63" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I63" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3271,13 +3277,13 @@
         <v>310.65</v>
       </c>
       <c r="G64" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H64" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I64" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3300,13 +3306,13 @@
         <v>1086.8</v>
       </c>
       <c r="G65" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H65" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I65" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3329,13 +3335,13 @@
         <v>7644.8</v>
       </c>
       <c r="G66" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H66" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I66" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3358,13 +3364,13 @@
         <v>517.85</v>
       </c>
       <c r="G67" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H67" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I67" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3387,13 +3393,13 @@
         <v>1476.57</v>
       </c>
       <c r="G68" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H68" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I68" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3416,13 +3422,13 @@
         <v>7708.05</v>
       </c>
       <c r="G69" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H69" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I69" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3445,13 +3451,13 @@
         <v>1919.28</v>
       </c>
       <c r="G70" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H70" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I70" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3474,13 +3480,13 @@
         <v>1620.16</v>
       </c>
       <c r="G71" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H71" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I71" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3503,13 +3509,13 @@
         <v>2761.2</v>
       </c>
       <c r="G72" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H72" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I72" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3532,13 +3538,13 @@
         <v>5965.5</v>
       </c>
       <c r="G73" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H73" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I73" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3561,13 +3567,13 @@
         <v>1171.5</v>
       </c>
       <c r="G74" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H74" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I74" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3590,13 +3596,13 @@
         <v>14816.64</v>
       </c>
       <c r="G75" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H75" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I75" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3619,13 +3625,13 @@
         <v>8428.08</v>
       </c>
       <c r="G76" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H76" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I76" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3648,13 +3654,13 @@
         <v>3748.75</v>
       </c>
       <c r="G77" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H77" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I77" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3677,13 +3683,13 @@
         <v>6097.05</v>
       </c>
       <c r="G78" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H78" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I78" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3706,13 +3712,13 @@
         <v>1107</v>
       </c>
       <c r="G79" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H79" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I79" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3735,13 +3741,13 @@
         <v>1446.36</v>
       </c>
       <c r="G80" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H80" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I80" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3764,13 +3770,13 @@
         <v>3532.3</v>
       </c>
       <c r="G81" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H81" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I81" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3793,13 +3799,13 @@
         <v>3638.23</v>
       </c>
       <c r="G82" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H82" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I82" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3822,13 +3828,13 @@
         <v>4310.25</v>
       </c>
       <c r="G83" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H83" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I83" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3851,13 +3857,13 @@
         <v>6724.86</v>
       </c>
       <c r="G84" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H84" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I84" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3880,13 +3886,13 @@
         <v>3592.83</v>
       </c>
       <c r="G85" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H85" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I85" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3909,13 +3915,13 @@
         <v>5170.2</v>
       </c>
       <c r="G86" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H86" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I86" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3938,13 +3944,13 @@
         <v>474.15</v>
       </c>
       <c r="G87" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H87" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I87" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3967,13 +3973,13 @@
         <v>1590.55</v>
       </c>
       <c r="G88" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H88" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I88" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3996,13 +4002,13 @@
         <v>488.32</v>
       </c>
       <c r="G89" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H89" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I89" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4025,13 +4031,13 @@
         <v>134.55</v>
       </c>
       <c r="G90" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I90" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4054,13 +4060,13 @@
         <v>2107.56</v>
       </c>
       <c r="G91" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H91" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I91" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4083,13 +4089,13 @@
         <v>1580.28</v>
       </c>
       <c r="G92" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H92" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I92" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4112,13 +4118,13 @@
         <v>1885.5</v>
       </c>
       <c r="G93" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H93" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I93" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4141,13 +4147,13 @@
         <v>825.3</v>
       </c>
       <c r="G94" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H94" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I94" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4170,13 +4176,13 @@
         <v>888.76</v>
       </c>
       <c r="G95" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H95" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I95" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4199,13 +4205,13 @@
         <v>2997.4</v>
       </c>
       <c r="G96" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H96" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I96" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4228,13 +4234,13 @@
         <v>5471.05</v>
       </c>
       <c r="G97" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H97" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I97" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4257,13 +4263,13 @@
         <v>14700</v>
       </c>
       <c r="G98" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H98" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I98" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4286,13 +4292,13 @@
         <v>1749.48</v>
       </c>
       <c r="G99" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H99" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I99" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4315,13 +4321,13 @@
         <v>1986.09</v>
       </c>
       <c r="G100" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H100" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I100" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4344,13 +4350,13 @@
         <v>412.5600000000001</v>
       </c>
       <c r="G101" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H101" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I101" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4373,13 +4379,13 @@
         <v>522.27</v>
       </c>
       <c r="G102" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H102" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I102" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4402,13 +4408,13 @@
         <v>47188.92</v>
       </c>
       <c r="G103" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H103" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I103" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4431,13 +4437,13 @@
         <v>2164.5</v>
       </c>
       <c r="G104" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H104" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I104" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4460,13 +4466,13 @@
         <v>1828.8</v>
       </c>
       <c r="G105" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H105" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I105" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4489,13 +4495,13 @@
         <v>790.08</v>
       </c>
       <c r="G106" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H106" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I106" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4518,13 +4524,13 @@
         <v>2766</v>
       </c>
       <c r="G107" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H107" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I107" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4544,16 +4550,16 @@
         <v>44.3</v>
       </c>
       <c r="F108">
-        <v>974.5999999999999</v>
+        <v>974.6</v>
       </c>
       <c r="G108" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H108" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I108" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4576,13 +4582,13 @@
         <v>865.98</v>
       </c>
       <c r="G109" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H109" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I109" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4605,13 +4611,13 @@
         <v>1570.8</v>
       </c>
       <c r="G110" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H110" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I110" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4634,13 +4640,13 @@
         <v>5196.2</v>
       </c>
       <c r="G111" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H111" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I111" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4663,13 +4669,13 @@
         <v>838.5899999999999</v>
       </c>
       <c r="G112" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H112" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I112" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4692,13 +4698,13 @@
         <v>5444.8</v>
       </c>
       <c r="G113" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H113" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I113" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4721,13 +4727,13 @@
         <v>3944</v>
       </c>
       <c r="G114" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H114" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I114" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4738,7 +4744,7 @@
         <v>153</v>
       </c>
       <c r="C115" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="D115">
         <v>20</v>
@@ -4750,13 +4756,13 @@
         <v>24106.2</v>
       </c>
       <c r="G115" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H115" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I115" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4767,7 +4773,7 @@
         <v>183</v>
       </c>
       <c r="C116" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -4779,13 +4785,13 @@
         <v>20638.26</v>
       </c>
       <c r="G116" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H116" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I116" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
